--- a/forwardprimer-v3_14.xlsx
+++ b/forwardprimer-v3_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_14" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1249-GTACACCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACACCTCATCGTCGGCAGCGTC</t>
+    <t>F1249-CCATCACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATCACTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1250-CTGTCTAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTCTAGTGTCGTCGGCAGCGTC</t>
+    <t>F1250-CTACCATCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCATCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1251-GTAGACGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACGTTCTCGTCGGCAGCGTC</t>
+    <t>F1251-GACAACACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAACACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1252-GTGATCCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGATCCTTCTCGTCGGCAGCGTC</t>
+    <t>F1252-AGTCTGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1253-GCACTAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACTAGGAATCGTCGGCAGCGTC</t>
+    <t>F1253-ATCCACAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCACAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1254-TGTCAGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAGATGATCGTCGGCAGCGTC</t>
+    <t>F1254-GAGATGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1255-TAGTGGTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGGTGCTTCGTCGGCAGCGTC</t>
+    <t>F1255-GTCATGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1256-CTCCAAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCAAGTGATCGTCGGCAGCGTC</t>
+    <t>F1256-AAGGAGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAGGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1257-GCATGTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGTCGTATCGTCGGCAGCGTC</t>
+    <t>F1257-CTGCTACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1258-GTACCATGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCATGAATCGTCGGCAGCGTC</t>
+    <t>F1258-AAGGACTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGACTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1259-GTTCGTACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTACTGTCGTCGGCAGCGTC</t>
+    <t>F1259-GTACCAACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACCAACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1260-AACACCAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACCAAGTTCGTCGGCAGCGTC</t>
+    <t>F1260-CCTCTTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1261-CTTCCTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCCTGCATTCGTCGGCAGCGTC</t>
+    <t>F1261-GAAGTCACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1262-GAAGAGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGTACCTCGTCGGCAGCGTC</t>
+    <t>F1262-AAGCTCTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1263-ATCTGACGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGACGAGTCGTCGGCAGCGTC</t>
+    <t>F1263-ACGAGTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGTTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1264-ATGCAACCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAACCAGTCGTCGGCAGCGTC</t>
+    <t>F1264-TCACTCATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1265-ACATCGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCGAGATTCGTCGGCAGCGTC</t>
+    <t>F1265-GAGGTTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTTCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1266-GGAACTAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACTAGCTTCGTCGGCAGCGTC</t>
+    <t>F1266-AGTTGTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1267-AGTGGTAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGTAGTGTCGTCGGCAGCGTC</t>
+    <t>F1267-CTCACCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACCATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1268-TTCGAGACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAGACGTTCGTCGGCAGCGTC</t>
+    <t>F1268-GGTTCACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1269-GAGTCGTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCGTTCATCGTCGGCAGCGTC</t>
+    <t>F1269-GTGAGACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGACTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1270-CTAGCAACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCAACAATCGTCGGCAGCGTC</t>
+    <t>F1270-CCTCTCACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTCACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1271-TCCTCTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCTCTCATCGTCGGCAGCGTC</t>
+    <t>F1271-CTTGTCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTCTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1272-ACCTTGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTTGGTCATCGTCGGCAGCGTC</t>
+    <t>F1272-TCTCCTTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1273-CTCTTCCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCCATCTCGTCGGCAGCGTC</t>
+    <t>F1273-TGTCGTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGTGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1274-AAGCTAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTAGACATCGTCGGCAGCGTC</t>
+    <t>F1274-AGTCAGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1275-CATGTCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCTCAATCGTCGGCAGCGTC</t>
+    <t>F1275-TCACGAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1276-GACTGAAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGAAGAATCGTCGGCAGCGTC</t>
+    <t>F1276-TTCCTTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1277-TTGTCAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCAAGGTTCGTCGGCAGCGTC</t>
+    <t>F1277-TCGAGTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGTAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1278-TCTGACTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACTCTGTCGTCGGCAGCGTC</t>
+    <t>F1278-TACGTACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1279-AACTGCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGCAACTTCGTCGGCAGCGTC</t>
+    <t>F1279-TCAGAGCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1280-CCACATGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACATGAGATCGTCGGCAGCGTC</t>
+    <t>F1280-TAGACTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1281-CAACGACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACGACCTATCGTCGGCAGCGTC</t>
+    <t>F1281-AGAGGTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGTCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1282-CTTGGTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGTCTGTTCGTCGGCAGCGTC</t>
+    <t>F1282-GGAGATCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGATCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1283-AGAAGCACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCACGATCGTCGGCAGCGTC</t>
+    <t>F1283-ACAGTACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1284-TTGACTGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTGGTCTCGTCGGCAGCGTC</t>
+    <t>F1284-ACACCAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1285-TCGAAGAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAAGAGACTCGTCGGCAGCGTC</t>
+    <t>F1285-CTCGTACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1286-GATGTCTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCTCTGTCGTCGGCAGCGTC</t>
+    <t>F1286-ACTGGTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1287-AAGACGTGTC</t>
+    <t>F1287-CAGTGTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGTCCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F1288-ATCTAGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTAGTACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F1289-CACGTAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGTAGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F1290-CAAGGAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGAACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F1291-GACTTCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTTCTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F1292-GTCACTTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F1293-TTCGTCTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTCTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F1294-AGTCAACAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAACAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F1295-GTTCTGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTGTGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F1296-GAGCTAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTAGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1297-GTGTCAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCAGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F1298-GTCACTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1299-TACCTCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCATCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F1300-GAAGAGGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1301-ATCGTACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTACGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1302-GACAGAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGAGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F1303-ACTAGGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGTTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1304-TCAGTACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTACGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1305-TTGTGATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGATCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1306-AGCTCACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCACTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1307-TGTCAAGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAAGGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1308-CAGGTTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGTTCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1309-ACCACTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACTCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1310-AGCTACGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F1311-TGCAGTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGTAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1312-TGTTCCAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCCAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1313-TCTCAACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAACCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F1314-GAAGGACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGACATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1315-TCTGAGCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAGCAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F1316-CAAGAGCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGCAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F1317-AAGTCGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCGTGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F1318-GACAGGTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGGTTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F1319-TACCTAGCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTAGCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F1320-CGTCATGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCATGCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F1321-TACAGCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGCAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F1322-ACATGCTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGCTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F1323-GTCTGACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGACGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F1324-GGTACTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F1325-CGTGTGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F1326-GTAGGTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F1327-CTGTACAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F1328-GGTACTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F1329-TGAGGAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGAACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F1330-CAGTCTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCTGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F1331-AGAGGAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGAGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F1332-GTAGGTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F1333-GGTCGTACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCGTACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F1334-CTCTCGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCGTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F1335-CAGAGTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F1336-AAGACGTGTC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACAAGACGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F1288-TCATCACCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCACCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F1289-TGGTGGTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGGTTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F1290-CTTCTCTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTCTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F1291-TAGTCTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTGGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F1292-CACTACTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTACTACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F1293-AGACCATGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACCATGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F1294-TCAGCTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F1295-ACCAGCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAGCAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F1296-ACTGCTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGCTACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F1297-CACTGTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F1298-AGAGCTTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1299-CTCTCAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCAACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F1300-ACAGTACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTACACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F1301-TGATGCAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F1302-TCCTTCGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F1303-CAACCTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCTTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F1304-AGCATGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1305-GTACTGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTGAAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1306-AAGACTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1307-TACTGGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGGATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1308-GGTCATCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCATCCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1309-AAGTCACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCACTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1310-GGATCCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F1311-AGCAGAACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGAACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1312-AGAGACCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F1313-CGACTGTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACTGTTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F1314-TCTAGTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGTCTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F1315-AACGAGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAGTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F1316-AGTTCTCGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCTCGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F1317-ACACTACGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTACGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F1318-AGGTGATGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGATGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F1319-TACACACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACACGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F1320-AACACCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACCTGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F1321-AGAAGCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCAACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F1322-TCAGAACGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAACGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F1323-ACACGAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGAACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F1324-CACTTCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTTCTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F1325-GATCTGTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTGTGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F1326-TTCCAACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAACATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F1327-CCAAGATCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGATCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F1328-GACTGACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGACTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F1329-AGCATGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F1330-GAACCACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCACAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F1331-TCTCCTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F1332-TCTGAGCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAGCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F1333-ACACGTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGTGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F1334-TCGTACGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F1335-TTGACTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F1336-GCTAGAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGAGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1337-TACATCACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATCACTCTCGTCGGCAGCGTC</t>
+    <t>F1337-CGACTCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACTCAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1338-GCTACAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACAACTATCGTCGGCAGCGTC</t>
+    <t>F1338-TCCTTGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1339-ATGAGGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGGAGAGTCGTCGGCAGCGTC</t>
+    <t>F1339-GATCAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1340-GAACCTACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTACCTTCGTCGGCAGCGTC</t>
+    <t>F1340-GTGACGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGACGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1341-TACTACAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTACAGCTTCGTCGGCAGCGTC</t>
+    <t>F1341-TGGACTAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACTAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1342-TGACCAAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCAAGCTTCGTCGGCAGCGTC</t>
+    <t>F1342-ATCAGGACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGGACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1343-TTCACTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACTAGAGTCGTCGGCAGCGTC</t>
+    <t>F1343-GCTGATCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTGATCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1344-ACAGTAGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTAGTCGTCGTCGGCAGCGTC</t>
+    <t>F1344-ATCTCTGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCTGTCGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
